--- a/Examples/HybridPowerSystem/HVDC_4Bus/HVDC_InfBus_4Bus.xlsx
+++ b/Examples/HybridPowerSystem/HVDC_4Bus/HVDC_InfBus_4Bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Simplus-Grid-Tool\Examples\HybridPowerSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Work\Simplus-Grid-Tool\Examples\HybridPowerSystem\HVDC_4Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80EF1BD-6083-440C-8633-0188761C4E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DD72A3-D1E9-4B5C-AEC1-81EB1479B8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -378,7 +378,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -665,66 +665,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
-    <col min="12" max="12" width="10.4140625" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -762,7 +762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -928,13 +928,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -966,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1001,39 +1001,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="39.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="12.4140625" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="18.58203125" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
-    <col min="12" max="12" width="17.9140625" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1103,62 +1103,62 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.4140625" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1196,53 +1196,53 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1337,13 +1337,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15" s="1"/>
     </row>
   </sheetData>
@@ -1361,25 +1361,25 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.58203125" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1427,22 +1427,22 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>

--- a/Examples/HybridPowerSystem/HVDC_4Bus/HVDC_InfBus_4Bus.xlsx
+++ b/Examples/HybridPowerSystem/HVDC_4Bus/HVDC_InfBus_4Bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Work\Simplus-Grid-Tool\Examples\HybridPowerSystem\HVDC_4Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DD72A3-D1E9-4B5C-AEC1-81EB1479B8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7642D0FA-158E-489C-A786-94255CE28881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17745" yWindow="2160" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -666,7 +666,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
